--- a/Data/Cost Calculation - SL.xlsx
+++ b/Data/Cost Calculation - SL.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.tan.2018\Documents\GitHub\SMA-Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6FF171-B6D6-41D0-A458-088971882159}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83EDA3F-7198-4B47-B143-158334AC4F79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="2" xr2:uid="{3655CA4D-2F4C-4629-AA28-842FC012CC9E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="4" xr2:uid="{3655CA4D-2F4C-4629-AA28-842FC012CC9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable Cost" sheetId="1" r:id="rId1"/>
     <sheet name="Fixed Cost" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Ingredients use SL" sheetId="4" r:id="rId4"/>
-    <sheet name="Ingredients use SMU" sheetId="5" r:id="rId5"/>
+    <sheet name="Ingredients use SMU" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$B$34:$B$104</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="120">
   <si>
     <t>Item Code (on menu)</t>
   </si>
@@ -334,9 +334,6 @@
     <t>Price per gram</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Expenditure </t>
-  </si>
-  <si>
     <t>Expenditure per month</t>
   </si>
   <si>
@@ -393,15 +390,25 @@
   <si>
     <t>No Category</t>
   </si>
+  <si>
+    <t xml:space="preserve">Total  </t>
+  </si>
+  <si>
+    <t>Mark up 20%</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.0000_-;\-&quot;$&quot;* #,##0.0000_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -461,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -722,12 +729,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -801,6 +899,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,15 +929,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -840,9 +941,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency 2" xfId="2" xr:uid="{93D4ABB3-E045-41B8-A644-CFD23885CF23}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1751,6 +1863,997 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-D542-4773-8087-BEC7CB7862DC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ingredients use SMU'!$B$4:$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>Prawn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Egg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Enokitake mushroom</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lettuce</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tom Yum Soup</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Meat Patty</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Noodle</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Minced Pork</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Broccoli</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Long Bean</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sauce</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Tomato</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Pork Rib</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Bok Choy</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Pork Soup</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Mala Minced Pork</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Chicken Soup</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Coriander</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Pork Slice</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Mushroom</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Chicken Wing</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Chicken Feet</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Stew Chicken Soup</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Rice</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Lemongrass Chicken</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Grilled Pork</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ingredients use SMU'!$O$4:$O$29</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>3611.5200000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>392.22500000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2050.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3320</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4207.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>741.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>311.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>225.84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>284.73599999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>247.38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2412</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>414.57599999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4332.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>246.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>910.65</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>206.375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>465.92</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>174.72</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>436.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48.32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1200.1500000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>482.40000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000034-D542-4773-8087-BEC7CB7862DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="1600936256"/>
+        <c:axId val="1406840688"/>
+      </c:barChart>
+      <c:valAx>
+        <c:axId val="1406840688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1600936256"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1600936256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1406840688"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1791,7 +2894,566 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2351,6 +4013,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>996412</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>83126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>831273</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA02A64-EF37-4902-B459-65F9D63F2190}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2700,10 +4405,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2719,7 +4424,7 @@
         <f>(E2/VLOOKUP(C2,$J$2:$L$27,2,FALSE))*VLOOKUP(C2,$J$2:$L$27,3,FALSE)</f>
         <v>3.6</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="32">
         <f>SUM(F2:F8)</f>
         <v>5.1350000000000007</v>
       </c>
@@ -2734,8 +4439,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="32"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2749,7 +4454,7 @@
         <f t="shared" ref="F3:F66" si="0">(E3/VLOOKUP(C3,$J$2:$L$27,2,FALSE))*VLOOKUP(C3,$J$2:$L$27,3,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="G3" s="38"/>
+      <c r="G3" s="33"/>
       <c r="J3" s="13" t="s">
         <v>9</v>
       </c>
@@ -2761,8 +4466,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="32"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2776,7 +4481,7 @@
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G4" s="38"/>
+      <c r="G4" s="33"/>
       <c r="J4" s="13" t="s">
         <v>7</v>
       </c>
@@ -2788,8 +4493,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="32"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
@@ -2803,7 +4508,7 @@
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="G5" s="38"/>
+      <c r="G5" s="33"/>
       <c r="J5" s="13" t="s">
         <v>11</v>
       </c>
@@ -2815,8 +4520,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="32"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2830,7 +4535,7 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="G6" s="38"/>
+      <c r="G6" s="33"/>
       <c r="J6" s="13" t="s">
         <v>53</v>
       </c>
@@ -2842,8 +4547,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="32"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
@@ -2857,7 +4562,7 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="G7" s="38"/>
+      <c r="G7" s="33"/>
       <c r="J7" s="13" t="s">
         <v>19</v>
       </c>
@@ -2869,8 +4574,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="33"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
@@ -2884,7 +4589,7 @@
         <f t="shared" si="0"/>
         <v>0.32000000000000006</v>
       </c>
-      <c r="G8" s="39"/>
+      <c r="G8" s="34"/>
       <c r="J8" s="13" t="s">
         <v>54</v>
       </c>
@@ -2896,10 +4601,10 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2915,7 +4620,7 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="32">
         <f>SUM(F9:F16)</f>
         <v>1.0385000000000002</v>
       </c>
@@ -2930,8 +4635,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="32"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2945,7 +4650,7 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="G10" s="38"/>
+      <c r="G10" s="33"/>
       <c r="J10" s="13" t="s">
         <v>14</v>
       </c>
@@ -2957,8 +4662,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="32"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2972,7 +4677,7 @@
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G11" s="38"/>
+      <c r="G11" s="33"/>
       <c r="J11" s="13" t="s">
         <v>23</v>
       </c>
@@ -2984,8 +4689,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="32"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
@@ -2999,7 +4704,7 @@
         <f t="shared" si="0"/>
         <v>0.105</v>
       </c>
-      <c r="G12" s="38"/>
+      <c r="G12" s="33"/>
       <c r="J12" s="13" t="s">
         <v>12</v>
       </c>
@@ -3011,8 +4716,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="32"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
@@ -3026,7 +4731,7 @@
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="G13" s="38"/>
+      <c r="G13" s="33"/>
       <c r="J13" s="13" t="s">
         <v>26</v>
       </c>
@@ -3038,8 +4743,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="32"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
@@ -3053,7 +4758,7 @@
         <f t="shared" si="0"/>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="G14" s="38"/>
+      <c r="G14" s="33"/>
       <c r="J14" s="13" t="s">
         <v>27</v>
       </c>
@@ -3065,8 +4770,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="32"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
@@ -3080,7 +4785,7 @@
         <f t="shared" si="0"/>
         <v>0.32000000000000006</v>
       </c>
-      <c r="G15" s="38"/>
+      <c r="G15" s="33"/>
       <c r="J15" s="13" t="s">
         <v>33</v>
       </c>
@@ -3092,8 +4797,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="33"/>
-      <c r="B16" s="36"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="3" t="s">
         <v>54</v>
       </c>
@@ -3107,7 +4812,7 @@
         <f t="shared" si="0"/>
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="G16" s="39"/>
+      <c r="G16" s="34"/>
       <c r="J16" s="13" t="s">
         <v>40</v>
       </c>
@@ -3119,10 +4824,10 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="38" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3138,7 +4843,7 @@
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="32">
         <f>SUM(F17:F22)</f>
         <v>2.7320000000000002</v>
       </c>
@@ -3153,8 +4858,8 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="32"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
@@ -3168,7 +4873,7 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="G18" s="38"/>
+      <c r="G18" s="33"/>
       <c r="J18" s="13" t="s">
         <v>42</v>
       </c>
@@ -3180,8 +4885,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="32"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
@@ -3195,7 +4900,7 @@
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="G19" s="38"/>
+      <c r="G19" s="33"/>
       <c r="J19" s="13" t="s">
         <v>55</v>
       </c>
@@ -3207,8 +4912,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="32"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
@@ -3222,7 +4927,7 @@
         <f t="shared" si="0"/>
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="G20" s="38"/>
+      <c r="G20" s="33"/>
       <c r="J20" s="13" t="s">
         <v>48</v>
       </c>
@@ -3234,8 +4939,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="32"/>
-      <c r="B21" s="35"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
@@ -3249,7 +4954,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G21" s="38"/>
+      <c r="G21" s="33"/>
       <c r="J21" s="1" t="s">
         <v>24</v>
       </c>
@@ -3261,8 +4966,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="33"/>
-      <c r="B22" s="36"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="3" t="s">
         <v>15</v>
       </c>
@@ -3276,7 +4981,7 @@
         <f t="shared" si="0"/>
         <v>0.32000000000000006</v>
       </c>
-      <c r="G22" s="39"/>
+      <c r="G22" s="34"/>
       <c r="J22" s="16" t="s">
         <v>20</v>
       </c>
@@ -3288,10 +4993,10 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="38" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -3307,7 +5012,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="32">
         <f>SUM(F23:F27)</f>
         <v>4.8800000000000008</v>
       </c>
@@ -3322,8 +5027,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="32"/>
-      <c r="B24" s="35"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
@@ -3337,7 +5042,7 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="G24" s="38"/>
+      <c r="G24" s="33"/>
       <c r="J24" s="16" t="s">
         <v>28</v>
       </c>
@@ -3349,8 +5054,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="32"/>
-      <c r="B25" s="35"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
@@ -3364,7 +5069,7 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="G25" s="38"/>
+      <c r="G25" s="33"/>
       <c r="J25" s="16" t="s">
         <v>31</v>
       </c>
@@ -3376,8 +5081,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="32"/>
-      <c r="B26" s="35"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="1" t="s">
         <v>28</v>
       </c>
@@ -3391,7 +5096,7 @@
         <f t="shared" si="0"/>
         <v>0.36000000000000004</v>
       </c>
-      <c r="G26" s="38"/>
+      <c r="G26" s="33"/>
       <c r="J26" s="16" t="s">
         <v>32</v>
       </c>
@@ -3403,8 +5108,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="33"/>
-      <c r="B27" s="36"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="3" t="s">
         <v>15</v>
       </c>
@@ -3418,7 +5123,7 @@
         <f t="shared" si="0"/>
         <v>0.32000000000000006</v>
       </c>
-      <c r="G27" s="39"/>
+      <c r="G27" s="34"/>
       <c r="J27" s="16" t="s">
         <v>45</v>
       </c>
@@ -3430,10 +5135,10 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="38" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -3449,14 +5154,14 @@
         <f t="shared" si="0"/>
         <v>0.32500000000000001</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="32">
         <f>SUM(F28:F34)</f>
         <v>1.51</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="32"/>
-      <c r="B29" s="35"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="1" t="s">
         <v>9</v>
       </c>
@@ -3470,11 +5175,11 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="G29" s="38"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="32"/>
-      <c r="B30" s="35"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="1" t="s">
         <v>32</v>
       </c>
@@ -3488,11 +5193,11 @@
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G30" s="38"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="32"/>
-      <c r="B31" s="35"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="1" t="s">
         <v>12</v>
       </c>
@@ -3506,11 +5211,11 @@
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="G31" s="38"/>
+      <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="32"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
@@ -3524,11 +5229,11 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="G32" s="38"/>
+      <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="32"/>
-      <c r="B33" s="35"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="1" t="s">
         <v>14</v>
       </c>
@@ -3542,11 +5247,11 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="G33" s="38"/>
+      <c r="G33" s="33"/>
     </row>
     <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="33"/>
-      <c r="B34" s="36"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3560,13 +5265,13 @@
         <f t="shared" si="0"/>
         <v>0.32000000000000006</v>
       </c>
-      <c r="G34" s="39"/>
+      <c r="G34" s="34"/>
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="38" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -3582,14 +5287,14 @@
         <f t="shared" si="0"/>
         <v>1.4400000000000002</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="32">
         <f>SUM(F35:F40)</f>
         <v>2.7500000000000009</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="32"/>
-      <c r="B36" s="35"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="1" t="s">
         <v>9</v>
       </c>
@@ -3603,11 +5308,11 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="G36" s="38"/>
+      <c r="G36" s="33"/>
     </row>
     <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="32"/>
-      <c r="B37" s="35"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="1" t="s">
         <v>11</v>
       </c>
@@ -3621,11 +5326,11 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="G37" s="38"/>
+      <c r="G37" s="33"/>
     </row>
     <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="32"/>
-      <c r="B38" s="35"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="1" t="s">
         <v>12</v>
       </c>
@@ -3639,11 +5344,11 @@
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="G38" s="38"/>
+      <c r="G38" s="33"/>
     </row>
     <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="32"/>
-      <c r="B39" s="35"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="1" t="s">
         <v>13</v>
       </c>
@@ -3657,11 +5362,11 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="G39" s="38"/>
+      <c r="G39" s="33"/>
     </row>
     <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="33"/>
-      <c r="B40" s="36"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="40"/>
       <c r="C40" s="3" t="s">
         <v>15</v>
       </c>
@@ -3675,13 +5380,13 @@
         <f t="shared" si="0"/>
         <v>0.32000000000000006</v>
       </c>
-      <c r="G40" s="39"/>
+      <c r="G40" s="34"/>
     </row>
     <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="38" t="s">
         <v>37</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -3697,14 +5402,14 @@
         <f t="shared" si="0"/>
         <v>0.32500000000000001</v>
       </c>
-      <c r="G41" s="37">
+      <c r="G41" s="32">
         <f>SUM(F41:F47)</f>
         <v>2.0600000000000005</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="32"/>
-      <c r="B42" s="35"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="1" t="s">
         <v>9</v>
       </c>
@@ -3718,11 +5423,11 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="G42" s="38"/>
+      <c r="G42" s="33"/>
     </row>
     <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="32"/>
-      <c r="B43" s="35"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="1" t="s">
         <v>11</v>
       </c>
@@ -3736,11 +5441,11 @@
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G43" s="38"/>
+      <c r="G43" s="33"/>
     </row>
     <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="32"/>
-      <c r="B44" s="35"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="1" t="s">
         <v>12</v>
       </c>
@@ -3754,11 +5459,11 @@
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="G44" s="38"/>
+      <c r="G44" s="33"/>
     </row>
     <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="32"/>
-      <c r="B45" s="35"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="39"/>
       <c r="C45" s="1" t="s">
         <v>13</v>
       </c>
@@ -3772,11 +5477,11 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="G45" s="38"/>
+      <c r="G45" s="33"/>
     </row>
     <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="32"/>
-      <c r="B46" s="35"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
@@ -3790,11 +5495,11 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="G46" s="38"/>
+      <c r="G46" s="33"/>
     </row>
     <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="33"/>
-      <c r="B47" s="36"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="40"/>
       <c r="C47" s="3" t="s">
         <v>15</v>
       </c>
@@ -3808,13 +5513,13 @@
         <f t="shared" si="0"/>
         <v>0.32000000000000006</v>
       </c>
-      <c r="G47" s="39"/>
+      <c r="G47" s="34"/>
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -3830,14 +5535,14 @@
         <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
-      <c r="G48" s="37">
+      <c r="G48" s="32">
         <f>SUM(F48:F53)</f>
         <v>1.9720000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="32"/>
-      <c r="B49" s="35"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="39"/>
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3851,11 +5556,11 @@
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="G49" s="38"/>
+      <c r="G49" s="33"/>
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="32"/>
-      <c r="B50" s="35"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="1" t="s">
         <v>32</v>
       </c>
@@ -3869,11 +5574,11 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="G50" s="38"/>
+      <c r="G50" s="33"/>
     </row>
     <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="32"/>
-      <c r="B51" s="35"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="1" t="s">
         <v>24</v>
       </c>
@@ -3887,11 +5592,11 @@
         <f t="shared" si="0"/>
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="G51" s="38"/>
+      <c r="G51" s="33"/>
     </row>
     <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="32"/>
-      <c r="B52" s="35"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="1" t="s">
         <v>42</v>
       </c>
@@ -3905,11 +5610,11 @@
         <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="G52" s="38"/>
+      <c r="G52" s="33"/>
     </row>
     <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="33"/>
-      <c r="B53" s="36"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="40"/>
       <c r="C53" s="3" t="s">
         <v>15</v>
       </c>
@@ -3923,13 +5628,13 @@
         <f t="shared" si="0"/>
         <v>0.32000000000000006</v>
       </c>
-      <c r="G53" s="39"/>
+      <c r="G53" s="34"/>
     </row>
     <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="38" t="s">
         <v>44</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -3945,14 +5650,14 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="G54" s="37">
+      <c r="G54" s="32">
         <f>SUM(F54:F58)</f>
         <v>2.052</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="32"/>
-      <c r="B55" s="35"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="39"/>
       <c r="C55" s="1" t="s">
         <v>9</v>
       </c>
@@ -3966,11 +5671,11 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="G55" s="38"/>
+      <c r="G55" s="33"/>
     </row>
     <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="32"/>
-      <c r="B56" s="35"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="39"/>
       <c r="C56" s="1" t="s">
         <v>24</v>
       </c>
@@ -3984,11 +5689,11 @@
         <f t="shared" si="0"/>
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="G56" s="38"/>
+      <c r="G56" s="33"/>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="32"/>
-      <c r="B57" s="35"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="39"/>
       <c r="C57" s="1" t="s">
         <v>33</v>
       </c>
@@ -4002,11 +5707,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G57" s="38"/>
+      <c r="G57" s="33"/>
     </row>
     <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="33"/>
-      <c r="B58" s="36"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="40"/>
       <c r="C58" s="3" t="s">
         <v>45</v>
       </c>
@@ -4020,13 +5725,13 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="G58" s="39"/>
+      <c r="G58" s="34"/>
     </row>
     <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="38" t="s">
         <v>47</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -4042,14 +5747,14 @@
         <f t="shared" si="0"/>
         <v>1.05</v>
       </c>
-      <c r="G59" s="37">
+      <c r="G59" s="32">
         <f>SUM(F59:F64)</f>
         <v>2.3945000000000007</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="32"/>
-      <c r="B60" s="35"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="39"/>
       <c r="C60" s="1" t="s">
         <v>9</v>
       </c>
@@ -4063,11 +5768,11 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="G60" s="38"/>
+      <c r="G60" s="33"/>
     </row>
     <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="32"/>
-      <c r="B61" s="35"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="39"/>
       <c r="C61" s="1" t="s">
         <v>24</v>
       </c>
@@ -4081,11 +5786,11 @@
         <f t="shared" si="0"/>
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="G61" s="38"/>
+      <c r="G61" s="33"/>
     </row>
     <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="32"/>
-      <c r="B62" s="35"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="39"/>
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -4099,11 +5804,11 @@
         <f t="shared" si="0"/>
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="G62" s="38"/>
+      <c r="G62" s="33"/>
     </row>
     <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="32"/>
-      <c r="B63" s="35"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="39"/>
       <c r="C63" s="1" t="s">
         <v>27</v>
       </c>
@@ -4117,11 +5822,11 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="G63" s="38"/>
+      <c r="G63" s="33"/>
     </row>
     <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="33"/>
-      <c r="B64" s="36"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="40"/>
       <c r="C64" s="3" t="s">
         <v>15</v>
       </c>
@@ -4135,13 +5840,13 @@
         <f t="shared" si="0"/>
         <v>0.32000000000000006</v>
       </c>
-      <c r="G64" s="39"/>
+      <c r="G64" s="34"/>
     </row>
     <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="38" t="s">
         <v>50</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -4157,14 +5862,14 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="G65" s="37">
+      <c r="G65" s="32">
         <f>SUM(F65:F71)</f>
         <v>2.7444999999999995</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="32"/>
-      <c r="B66" s="35"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="39"/>
       <c r="C66" s="1" t="s">
         <v>9</v>
       </c>
@@ -4178,11 +5883,11 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="G66" s="38"/>
+      <c r="G66" s="33"/>
     </row>
     <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="32"/>
-      <c r="B67" s="35"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="39"/>
       <c r="C67" s="1" t="s">
         <v>24</v>
       </c>
@@ -4196,11 +5901,11 @@
         <f>(E67/VLOOKUP(C67,$J$2:$L$27,2,FALSE))*VLOOKUP(C67,$J$2:$L$27,3,FALSE)</f>
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="G67" s="38"/>
+      <c r="G67" s="33"/>
     </row>
     <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="32"/>
-      <c r="B68" s="35"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="39"/>
       <c r="C68" s="1" t="s">
         <v>54</v>
       </c>
@@ -4214,11 +5919,11 @@
         <f>(E68/VLOOKUP(C68,$J$2:$L$27,2,FALSE))*VLOOKUP(C68,$J$2:$L$27,3,FALSE)</f>
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="G68" s="38"/>
+      <c r="G68" s="33"/>
     </row>
     <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="32"/>
-      <c r="B69" s="35"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="39"/>
       <c r="C69" s="1" t="s">
         <v>33</v>
       </c>
@@ -4232,11 +5937,11 @@
         <f>(E69/VLOOKUP(C69,$J$2:$L$27,2,FALSE))*VLOOKUP(C69,$J$2:$L$27,3,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="G69" s="38"/>
+      <c r="G69" s="33"/>
     </row>
     <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="32"/>
-      <c r="B70" s="35"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="39"/>
       <c r="C70" s="1" t="s">
         <v>14</v>
       </c>
@@ -4250,11 +5955,11 @@
         <f>(E70/VLOOKUP(C70,$J$2:$L$27,2,FALSE))*VLOOKUP(C70,$J$2:$L$27,3,FALSE)</f>
         <v>0.4</v>
       </c>
-      <c r="G70" s="38"/>
+      <c r="G70" s="33"/>
     </row>
     <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="33"/>
-      <c r="B71" s="36"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="40"/>
       <c r="C71" s="3" t="s">
         <v>15</v>
       </c>
@@ -4268,15 +5973,22 @@
         <f>(E71/VLOOKUP(C71,$J$2:$L$27,2,FALSE))*VLOOKUP(C71,$J$2:$L$27,3,FALSE)</f>
         <v>0.32000000000000006</v>
       </c>
-      <c r="G71" s="39"/>
+      <c r="G71" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G41:G47"/>
-    <mergeCell ref="G48:G53"/>
-    <mergeCell ref="G54:G58"/>
-    <mergeCell ref="G59:G64"/>
-    <mergeCell ref="G65:G71"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B40"/>
     <mergeCell ref="A59:A64"/>
     <mergeCell ref="B59:B64"/>
     <mergeCell ref="A65:A71"/>
@@ -4293,18 +6005,11 @@
     <mergeCell ref="B48:B53"/>
     <mergeCell ref="A54:A58"/>
     <mergeCell ref="B54:B58"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="G41:G47"/>
+    <mergeCell ref="G48:G53"/>
+    <mergeCell ref="G54:G58"/>
+    <mergeCell ref="G59:G64"/>
+    <mergeCell ref="G65:G71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4326,14 +6031,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -4344,7 +6049,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="41"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="1" t="s">
         <v>61</v>
       </c>
@@ -4354,7 +6059,7 @@
       <c r="E4" s="21"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="41" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -4365,7 +6070,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="35"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="1" t="s">
         <v>63</v>
       </c>
@@ -4374,7 +6079,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="35"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="1" t="s">
         <v>64</v>
       </c>
@@ -4383,7 +6088,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="35"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
@@ -4392,7 +6097,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="41"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="1" t="s">
         <v>66</v>
       </c>
@@ -4401,14 +6106,14 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="41" t="s">
         <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -4419,7 +6124,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="41"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="1" t="s">
         <v>71</v>
       </c>
@@ -4444,8 +6149,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4455,10 +6160,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="22">
         <v>2018</v>
       </c>
@@ -4506,8 +6211,8 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="22" t="s">
         <v>76</v>
       </c>
@@ -5207,10 +6912,10 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="22">
         <v>2018</v>
       </c>
@@ -5258,8 +6963,8 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="22" t="s">
         <v>76</v>
       </c>
@@ -6553,8 +8258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2440A22-5181-4195-BAA2-10F189FCF6ED}">
   <dimension ref="B2:AZ73"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="I15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6638,7 +8343,7 @@
         <v>96</v>
       </c>
       <c r="P3" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R3" s="14" t="s">
         <v>56</v>
@@ -6670,10 +8375,10 @@
       <c r="AG3" t="s">
         <v>52</v>
       </c>
-      <c r="AI3" s="43" t="s">
+      <c r="AI3" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="AJ3" s="43"/>
+      <c r="AJ3" s="44"/>
       <c r="AK3" s="22">
         <v>2018</v>
       </c>
@@ -6802,8 +8507,8 @@
       <c r="AG4">
         <v>5.1350000000000007</v>
       </c>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
       <c r="AK4" s="22" t="s">
         <v>76</v>
       </c>
@@ -9448,7 +11153,7 @@
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.35">
       <c r="N32" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="O32" s="28">
         <f>SUM(O4:O29)</f>
@@ -9471,7 +11176,14 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="33" spans="28:36" x14ac:dyDescent="0.35">
+    <row r="33" spans="15:36" x14ac:dyDescent="0.35">
+      <c r="O33" t="s">
+        <v>118</v>
+      </c>
+      <c r="P33" s="48">
+        <f>P32*1.2</f>
+        <v>4118.6675600000008</v>
+      </c>
       <c r="AD33" t="s">
         <v>12</v>
       </c>
@@ -9485,7 +11197,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="34" spans="28:36" x14ac:dyDescent="0.35">
+    <row r="34" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD34" t="s">
         <v>33</v>
       </c>
@@ -9496,7 +11208,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="28:36" x14ac:dyDescent="0.35">
+    <row r="35" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD35" t="s">
         <v>14</v>
       </c>
@@ -9507,7 +11219,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="28:36" x14ac:dyDescent="0.35">
+    <row r="36" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD36" t="s">
         <v>15</v>
       </c>
@@ -9518,7 +11230,7 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="37" spans="28:36" x14ac:dyDescent="0.35">
+    <row r="37" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AB37" t="s">
         <v>34</v>
       </c>
@@ -9538,7 +11250,7 @@
         <v>2.7500000000000009</v>
       </c>
     </row>
-    <row r="38" spans="28:36" x14ac:dyDescent="0.35">
+    <row r="38" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD38" t="s">
         <v>9</v>
       </c>
@@ -9549,7 +11261,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="28:36" x14ac:dyDescent="0.35">
+    <row r="39" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD39" t="s">
         <v>11</v>
       </c>
@@ -9560,7 +11272,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="28:36" x14ac:dyDescent="0.35">
+    <row r="40" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD40" t="s">
         <v>12</v>
       </c>
@@ -9571,7 +11283,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="41" spans="28:36" x14ac:dyDescent="0.35">
+    <row r="41" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD41" t="s">
         <v>13</v>
       </c>
@@ -9582,7 +11294,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="42" spans="28:36" x14ac:dyDescent="0.35">
+    <row r="42" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD42" t="s">
         <v>15</v>
       </c>
@@ -9593,7 +11305,7 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="43" spans="28:36" x14ac:dyDescent="0.35">
+    <row r="43" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AB43" t="s">
         <v>36</v>
       </c>
@@ -9613,7 +11325,7 @@
         <v>2.0600000000000005</v>
       </c>
     </row>
-    <row r="44" spans="28:36" x14ac:dyDescent="0.35">
+    <row r="44" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD44" t="s">
         <v>9</v>
       </c>
@@ -9624,7 +11336,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="28:36" x14ac:dyDescent="0.35">
+    <row r="45" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD45" t="s">
         <v>11</v>
       </c>
@@ -9635,7 +11347,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="46" spans="28:36" x14ac:dyDescent="0.35">
+    <row r="46" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD46" t="s">
         <v>12</v>
       </c>
@@ -9646,7 +11358,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="47" spans="28:36" x14ac:dyDescent="0.35">
+    <row r="47" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD47" t="s">
         <v>13</v>
       </c>
@@ -9657,7 +11369,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="48" spans="28:36" x14ac:dyDescent="0.35">
+    <row r="48" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD48" t="s">
         <v>14</v>
       </c>
@@ -9989,293 +11701,3364 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B94A48B-161B-4F04-9997-C9A85D410B6A}">
-  <dimension ref="B2:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B60EFD0-BDEE-42C5-8DEE-A225FB9F972B}">
+  <dimension ref="B2:AZ73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="8" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6328125" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7265625" customWidth="1"/>
+    <col min="18" max="18" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="1"/>
-      <c r="C2" s="11" t="s">
+    <row r="2" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI3" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="31">
+        <v>2018</v>
+      </c>
+      <c r="AL3" s="31">
+        <v>2018</v>
+      </c>
+      <c r="AM3" s="31">
+        <v>2018</v>
+      </c>
+      <c r="AN3" s="31">
+        <v>2019</v>
+      </c>
+      <c r="AO3" s="31">
+        <v>2019</v>
+      </c>
+      <c r="AP3" s="31">
+        <v>2019</v>
+      </c>
+      <c r="AQ3" s="31"/>
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="31"/>
+      <c r="AU3" s="31"/>
+      <c r="AV3" s="31"/>
+      <c r="AW3" s="31"/>
+      <c r="AX3" s="31"/>
+      <c r="AY3" s="31"/>
+    </row>
+    <row r="4" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="31">
+        <f t="shared" ref="C4:C10" si="0">VLOOKUP($B4,$AD$4:$AE$10,2,FALSE)</f>
+        <v>200</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0</v>
+      </c>
+      <c r="E4" s="31">
+        <v>0</v>
+      </c>
+      <c r="F4" s="31">
+        <v>0</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="31">
+        <f>VLOOKUP($B4,$AD$37:$AE$42,2,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="I4" s="31">
+        <v>0</v>
+      </c>
+      <c r="J4" s="31">
+        <v>0</v>
+      </c>
+      <c r="K4" s="31">
+        <v>0</v>
+      </c>
+      <c r="L4" s="31">
+        <v>0</v>
+      </c>
+      <c r="M4" s="31">
+        <v>0</v>
+      </c>
+      <c r="N4" s="31">
+        <f>SUMPRODUCT(C4:M4,$C$31:$M$31)</f>
+        <v>200640</v>
+      </c>
+      <c r="O4" s="27">
+        <f>VLOOKUP(B4,$R$4:$U$29,4,FALSE)*N4</f>
+        <v>3611.5200000000004</v>
+      </c>
+      <c r="P4" s="29">
+        <f>O4/15</f>
+        <v>240.76800000000003</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="11">
+        <v>1000</v>
+      </c>
+      <c r="T4" s="15">
+        <v>5</v>
+      </c>
+      <c r="U4" s="30">
+        <f>T4/S4</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE4">
+        <v>200</v>
+      </c>
+      <c r="AF4">
+        <v>3.6</v>
+      </c>
+      <c r="AG4">
+        <v>5.1350000000000007</v>
+      </c>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL4" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM4" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN4" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO4" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP4" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="31"/>
+      <c r="AT4" s="31"/>
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="31">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="31">
+        <f>VLOOKUP($B5,$AD$11:$AE$18,2,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="31">
+        <v>0</v>
+      </c>
+      <c r="F5" s="31">
+        <v>0</v>
+      </c>
+      <c r="G5" s="31">
+        <f>VLOOKUP($B5,$AD$30:$AE$36,2,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="31">
+        <f>VLOOKUP($B5,$AD$37:$AE$42,2,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="31">
+        <f t="shared" ref="I5:I10" si="1">VLOOKUP($B5,$AD$43:$AE$49,2,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="31">
+        <v>0</v>
+      </c>
+      <c r="K5" s="31">
+        <f>VLOOKUP($B5,$AD$56:$AE$60,2,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="31">
+        <f>VLOOKUP($B5,$AD$61:$AE$66,2,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="31">
+        <f>VLOOKUP($B5,$AD$67:$AE$73,2,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="31">
+        <f t="shared" ref="N5:N29" si="2">SUMPRODUCT(C5:M5,$C$31:$M$31)</f>
+        <v>4830</v>
+      </c>
+      <c r="O5" s="27">
+        <f t="shared" ref="O5:O29" si="3">VLOOKUP(B5,$R$4:$U$29,4,FALSE)*N5</f>
+        <v>966</v>
+      </c>
+      <c r="P5" s="29">
+        <f t="shared" ref="P5:P29" si="4">O5/15</f>
+        <v>64.400000000000006</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="11">
+        <v>1</v>
+      </c>
+      <c r="T5" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="U5" s="30">
+        <f t="shared" ref="U5:U29" si="5">T5/S5</f>
+        <v>0.2</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE5">
+        <v>0.5</v>
+      </c>
+      <c r="AF5">
+        <v>0.1</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK5" s="49">
+        <v>111</v>
+      </c>
+      <c r="AL5" s="46">
+        <v>117</v>
+      </c>
+      <c r="AM5" s="46">
+        <v>122</v>
+      </c>
+      <c r="AN5" s="46">
+        <v>82</v>
+      </c>
+      <c r="AO5" s="46">
+        <v>145</v>
+      </c>
+      <c r="AP5" s="50">
+        <v>67</v>
+      </c>
+      <c r="AZ5">
+        <f>SUM(AK5:AY5)</f>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="6" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="31">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D6" s="31">
+        <f>VLOOKUP($B6,$AD$11:$AE$18,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="E6" s="31">
+        <v>0</v>
+      </c>
+      <c r="F6" s="31">
+        <v>0</v>
+      </c>
+      <c r="G6" s="31">
+        <v>0</v>
+      </c>
+      <c r="H6" s="31">
+        <f>VLOOKUP($B6,$AD$37:$AE$42,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="I6" s="31">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J6" s="31">
+        <v>0</v>
+      </c>
+      <c r="K6" s="31">
+        <v>0</v>
+      </c>
+      <c r="L6" s="31">
+        <v>0</v>
+      </c>
+      <c r="M6" s="31">
+        <v>0</v>
+      </c>
+      <c r="N6" s="31">
+        <f t="shared" si="2"/>
+        <v>78445</v>
+      </c>
+      <c r="O6" s="27">
+        <f t="shared" si="3"/>
+        <v>392.22500000000002</v>
+      </c>
+      <c r="P6" s="29">
+        <f t="shared" si="4"/>
+        <v>26.148333333333333</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="11">
         <v>100</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="T6" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="U6" s="30">
+        <f t="shared" si="5"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE6">
+        <v>15</v>
+      </c>
+      <c r="AF6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK6" s="51">
+        <v>499</v>
+      </c>
+      <c r="AL6" s="45">
+        <v>611</v>
+      </c>
+      <c r="AM6" s="45">
+        <v>703</v>
+      </c>
+      <c r="AN6" s="45">
+        <v>526</v>
+      </c>
+      <c r="AO6" s="45">
+        <v>442</v>
+      </c>
+      <c r="AP6" s="52">
+        <v>185</v>
+      </c>
+      <c r="AZ6">
+        <f>SUM(AK6:AY6)</f>
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="7" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D7" s="31">
+        <v>0</v>
+      </c>
+      <c r="E7" s="31">
+        <v>0</v>
+      </c>
+      <c r="F7" s="31">
+        <v>0</v>
+      </c>
+      <c r="G7" s="31">
+        <f>VLOOKUP($B7,$AD$30:$AE$36,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="H7" s="31">
+        <f>VLOOKUP($B7,$AD$37:$AE$42,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="I7" s="31">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="31">
+        <v>0</v>
+      </c>
+      <c r="K7" s="31">
+        <v>0</v>
+      </c>
+      <c r="L7" s="31">
+        <v>0</v>
+      </c>
+      <c r="M7" s="31">
+        <v>0</v>
+      </c>
+      <c r="N7" s="31">
+        <f t="shared" si="2"/>
+        <v>43440</v>
+      </c>
+      <c r="O7" s="27">
+        <f t="shared" si="3"/>
+        <v>173.76</v>
+      </c>
+      <c r="P7" s="29">
+        <f t="shared" si="4"/>
+        <v>11.584</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" s="11">
+        <v>100</v>
+      </c>
+      <c r="T7" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="U7" s="30">
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE7">
+        <v>10</v>
+      </c>
+      <c r="AF7">
+        <v>0.04</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK7" s="51">
+        <v>564</v>
+      </c>
+      <c r="AL7" s="45">
+        <v>565</v>
+      </c>
+      <c r="AM7" s="45">
+        <v>593</v>
+      </c>
+      <c r="AN7" s="45">
+        <v>400</v>
+      </c>
+      <c r="AO7" s="45">
+        <v>347</v>
+      </c>
+      <c r="AP7" s="52">
+        <v>211</v>
+      </c>
+      <c r="AZ7">
+        <f>SUM(AK7:AY7)</f>
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="8" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="31">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D8" s="31">
+        <v>0</v>
+      </c>
+      <c r="E8" s="31">
+        <v>0</v>
+      </c>
+      <c r="F8" s="31">
+        <v>0</v>
+      </c>
+      <c r="G8" s="31">
+        <v>0</v>
+      </c>
+      <c r="H8" s="31">
+        <f>VLOOKUP($B8,$AD$37:$AE$42,2,FALSE)</f>
+        <v>200</v>
+      </c>
+      <c r="I8" s="31">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="J8" s="31">
+        <v>0</v>
+      </c>
+      <c r="K8" s="31">
+        <v>0</v>
+      </c>
+      <c r="L8" s="31">
+        <v>0</v>
+      </c>
+      <c r="M8" s="31">
+        <v>0</v>
+      </c>
+      <c r="N8" s="31">
+        <f t="shared" si="2"/>
+        <v>512600</v>
+      </c>
+      <c r="O8" s="27">
+        <f t="shared" si="3"/>
+        <v>2050.4</v>
+      </c>
+      <c r="P8" s="29">
+        <f t="shared" si="4"/>
+        <v>136.69333333333333</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S8" s="11">
+        <v>1000</v>
+      </c>
+      <c r="T8" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="U8" s="30">
+        <f t="shared" si="5"/>
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE8">
+        <v>200</v>
+      </c>
+      <c r="AF8">
+        <v>0.8</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK8" s="51">
+        <v>122</v>
+      </c>
+      <c r="AL8" s="45">
+        <v>120</v>
+      </c>
+      <c r="AM8" s="45">
+        <v>178</v>
+      </c>
+      <c r="AN8" s="45">
+        <v>119</v>
+      </c>
+      <c r="AO8" s="45">
+        <v>104</v>
+      </c>
+      <c r="AP8" s="52">
+        <v>42</v>
+      </c>
+      <c r="AZ8">
+        <f>SUM(AK8:AY8)</f>
+        <v>685</v>
+      </c>
+    </row>
+    <row r="9" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="31">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D9" s="31">
+        <v>0</v>
+      </c>
+      <c r="E9" s="31">
+        <f>VLOOKUP($B9,$AD$19:$AE$24,2,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="F9" s="31">
+        <f>VLOOKUP($B9,$AD$25:$AE$29,2,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="G9" s="31">
+        <f>VLOOKUP($B9,$AD$30:$AE$36,2,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="H9" s="31">
+        <v>0</v>
+      </c>
+      <c r="I9" s="31">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J9" s="31">
+        <v>0</v>
+      </c>
+      <c r="K9" s="31">
+        <f>VLOOKUP($B9,$AD$56:$AE$60,2,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="L9" s="31">
+        <v>0</v>
+      </c>
+      <c r="M9" s="31">
+        <f>VLOOKUP($B9,$AD$67:$AE$73,2,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="N9" s="31">
+        <f t="shared" si="2"/>
+        <v>332000</v>
+      </c>
+      <c r="O9" s="27">
+        <f t="shared" si="3"/>
+        <v>3320</v>
+      </c>
+      <c r="P9" s="29">
+        <f t="shared" si="4"/>
+        <v>221.33333333333334</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S9" s="11">
+        <v>1000</v>
+      </c>
+      <c r="T9" s="15">
+        <v>2</v>
+      </c>
+      <c r="U9" s="30">
+        <f t="shared" si="5"/>
+        <v>2E-3</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE9">
+        <v>20</v>
+      </c>
+      <c r="AF9">
+        <v>0.2</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK9" s="51">
+        <v>142</v>
+      </c>
+      <c r="AL9" s="45">
+        <v>396</v>
+      </c>
+      <c r="AM9" s="45">
+        <v>459</v>
+      </c>
+      <c r="AN9" s="45">
+        <v>340</v>
+      </c>
+      <c r="AO9" s="45">
+        <v>303</v>
+      </c>
+      <c r="AP9" s="52">
+        <v>141</v>
+      </c>
+      <c r="AZ9">
+        <f>SUM(AK9:AY9)</f>
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="10" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="31">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D10" s="31">
+        <f t="shared" ref="D10:D15" si="6">VLOOKUP($B10,$AD$11:$AE$18,2,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="E10" s="31">
+        <f>VLOOKUP($B10,$AD$19:$AE$24,2,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="F10" s="31">
+        <f>VLOOKUP($B10,$AD$25:$AE$29,2,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="G10" s="31">
+        <f>VLOOKUP($B10,$AD$30:$AE$36,2,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="H10" s="31">
+        <f>VLOOKUP($B10,$AD$37:$AE$42,2,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="I10" s="31">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="J10" s="31">
+        <f>VLOOKUP($B10,$AD$50:$AE$55,2,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="K10" s="31">
+        <v>0</v>
+      </c>
+      <c r="L10" s="31">
+        <f>VLOOKUP($B10,$AD$61:$AE$66,2,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="M10" s="31">
+        <f>VLOOKUP($B10,$AD$67:$AE$73,2,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="N10" s="31">
+        <f t="shared" si="2"/>
+        <v>1051920</v>
+      </c>
+      <c r="O10" s="27">
+        <f t="shared" si="3"/>
+        <v>4207.68</v>
+      </c>
+      <c r="P10" s="29">
+        <f t="shared" si="4"/>
+        <v>280.512</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="S10" s="11">
+        <v>1000</v>
+      </c>
+      <c r="T10" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="U10" s="30">
+        <f t="shared" si="5"/>
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE10">
+        <v>80</v>
+      </c>
+      <c r="AF10">
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK10" s="51">
+        <v>195</v>
+      </c>
+      <c r="AL10" s="45">
+        <v>172</v>
+      </c>
+      <c r="AM10" s="45">
+        <v>177</v>
+      </c>
+      <c r="AN10" s="45">
+        <v>167</v>
+      </c>
+      <c r="AO10" s="45">
+        <v>113</v>
+      </c>
+      <c r="AP10" s="52">
+        <v>74</v>
+      </c>
+      <c r="AZ10">
+        <f>SUM(AK10:AY10)</f>
+        <v>898</v>
+      </c>
+    </row>
+    <row r="11" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="31">
+        <v>0</v>
+      </c>
+      <c r="D11" s="31">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="E11" s="31">
+        <v>0</v>
+      </c>
+      <c r="F11" s="31">
+        <v>0</v>
+      </c>
+      <c r="G11" s="31">
+        <v>0</v>
+      </c>
+      <c r="H11" s="31">
+        <v>0</v>
+      </c>
+      <c r="I11" s="31">
+        <v>0</v>
+      </c>
+      <c r="J11" s="31">
+        <v>0</v>
+      </c>
+      <c r="K11" s="31">
+        <v>0</v>
+      </c>
+      <c r="L11" s="31">
+        <v>0</v>
+      </c>
+      <c r="M11" s="31">
+        <v>0</v>
+      </c>
+      <c r="N11" s="31">
+        <f t="shared" si="2"/>
+        <v>148300</v>
+      </c>
+      <c r="O11" s="27">
+        <f t="shared" si="3"/>
+        <v>741.5</v>
+      </c>
+      <c r="P11" s="29">
+        <f t="shared" si="4"/>
+        <v>49.43333333333333</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" s="11">
+        <v>100</v>
+      </c>
+      <c r="T11" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="U11" s="30">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE11">
+        <v>50</v>
+      </c>
+      <c r="AF11">
+        <v>0.25</v>
+      </c>
+      <c r="AG11">
+        <v>1.0385000000000002</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK11" s="51">
+        <v>128</v>
+      </c>
+      <c r="AL11" s="45">
+        <v>153</v>
+      </c>
+      <c r="AM11" s="45">
+        <v>214</v>
+      </c>
+      <c r="AN11" s="45">
+        <v>249</v>
+      </c>
+      <c r="AO11" s="45">
+        <v>198</v>
+      </c>
+      <c r="AP11" s="52">
+        <v>79</v>
+      </c>
+      <c r="AZ11">
+        <f>SUM(AK11:AY11)</f>
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="12" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="31">
+        <v>0</v>
+      </c>
+      <c r="D12" s="31">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="E12" s="31">
+        <v>0</v>
+      </c>
+      <c r="F12" s="31">
+        <v>0</v>
+      </c>
+      <c r="G12" s="31">
+        <v>0</v>
+      </c>
+      <c r="H12" s="31">
+        <v>0</v>
+      </c>
+      <c r="I12" s="31">
+        <v>0</v>
+      </c>
+      <c r="J12" s="31">
+        <v>0</v>
+      </c>
+      <c r="K12" s="31">
+        <v>0</v>
+      </c>
+      <c r="L12" s="31">
+        <v>0</v>
+      </c>
+      <c r="M12" s="31">
+        <v>0</v>
+      </c>
+      <c r="N12" s="31">
+        <f t="shared" si="2"/>
+        <v>88980</v>
+      </c>
+      <c r="O12" s="27">
+        <f t="shared" si="3"/>
+        <v>311.43</v>
+      </c>
+      <c r="P12" s="29">
+        <f t="shared" si="4"/>
+        <v>20.762</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="S12" s="11">
+        <v>100</v>
+      </c>
+      <c r="T12" s="15">
+        <v>1</v>
+      </c>
+      <c r="U12" s="30">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE12">
+        <v>0.5</v>
+      </c>
+      <c r="AF12">
+        <v>0.1</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK12" s="51">
+        <v>149</v>
+      </c>
+      <c r="AL12" s="45">
+        <v>158</v>
+      </c>
+      <c r="AM12" s="45">
+        <v>169</v>
+      </c>
+      <c r="AN12" s="45">
+        <v>97</v>
+      </c>
+      <c r="AO12" s="45">
+        <v>104</v>
+      </c>
+      <c r="AP12" s="52">
+        <v>51</v>
+      </c>
+      <c r="AZ12">
+        <f>SUM(AK12:AY12)</f>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="13" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="31">
+        <v>0</v>
+      </c>
+      <c r="D13" s="31">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E13" s="31">
+        <f>VLOOKUP($B13,$AD$19:$AE$24,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="F13" s="31">
+        <v>0</v>
+      </c>
+      <c r="G13" s="31">
+        <v>0</v>
+      </c>
+      <c r="H13" s="31">
+        <v>0</v>
+      </c>
+      <c r="I13" s="31">
+        <v>0</v>
+      </c>
+      <c r="J13" s="31">
+        <v>0</v>
+      </c>
+      <c r="K13" s="31">
+        <v>0</v>
+      </c>
+      <c r="L13" s="31">
+        <v>0</v>
+      </c>
+      <c r="M13" s="31">
+        <v>0</v>
+      </c>
+      <c r="N13" s="31">
+        <f t="shared" si="2"/>
+        <v>112920</v>
+      </c>
+      <c r="O13" s="27">
+        <f t="shared" si="3"/>
+        <v>225.84</v>
+      </c>
+      <c r="P13" s="29">
+        <f t="shared" si="4"/>
+        <v>15.056000000000001</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" s="11">
+        <v>1000</v>
+      </c>
+      <c r="T13" s="15">
+        <v>6</v>
+      </c>
+      <c r="U13" s="30">
+        <f t="shared" si="5"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE13">
+        <v>15</v>
+      </c>
+      <c r="AF13">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK13" s="51">
+        <v>91</v>
+      </c>
+      <c r="AL13" s="45">
+        <v>90</v>
+      </c>
+      <c r="AM13" s="45">
+        <v>143</v>
+      </c>
+      <c r="AN13" s="45">
         <v>101</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="AO13" s="45">
+        <v>106</v>
+      </c>
+      <c r="AP13" s="52">
+        <v>73</v>
+      </c>
+      <c r="AZ13">
+        <f>SUM(AK13:AY13)</f>
+        <v>604</v>
+      </c>
+    </row>
+    <row r="14" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="31">
+        <v>0</v>
+      </c>
+      <c r="D14" s="31">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="E14" s="31">
+        <v>0</v>
+      </c>
+      <c r="F14" s="31">
+        <v>0</v>
+      </c>
+      <c r="G14" s="31">
+        <v>0</v>
+      </c>
+      <c r="H14" s="31">
+        <v>0</v>
+      </c>
+      <c r="I14" s="31">
+        <v>0</v>
+      </c>
+      <c r="J14" s="31">
+        <v>0</v>
+      </c>
+      <c r="K14" s="31">
+        <v>0</v>
+      </c>
+      <c r="L14" s="31">
+        <v>0</v>
+      </c>
+      <c r="M14" s="31">
+        <v>0</v>
+      </c>
+      <c r="N14" s="31">
+        <f t="shared" si="2"/>
+        <v>88980</v>
+      </c>
+      <c r="O14" s="27">
+        <f t="shared" si="3"/>
+        <v>284.73599999999999</v>
+      </c>
+      <c r="P14" s="29">
+        <f t="shared" si="4"/>
+        <v>18.982399999999998</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="11">
+        <v>1000</v>
+      </c>
+      <c r="T14" s="15">
+        <v>4</v>
+      </c>
+      <c r="U14" s="30">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE14">
+        <v>30</v>
+      </c>
+      <c r="AF14">
+        <v>0.105</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK14" s="51">
+        <v>164</v>
+      </c>
+      <c r="AL14" s="45">
+        <v>209</v>
+      </c>
+      <c r="AM14" s="45">
+        <v>239</v>
+      </c>
+      <c r="AN14" s="45">
+        <v>211</v>
+      </c>
+      <c r="AO14" s="45">
+        <v>205</v>
+      </c>
+      <c r="AP14" s="52">
+        <v>115</v>
+      </c>
+      <c r="AZ14">
+        <f>SUM(AK14:AY14)</f>
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="15" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="31">
+        <v>0</v>
+      </c>
+      <c r="D15" s="31">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="E15" s="31">
+        <v>0</v>
+      </c>
+      <c r="F15" s="31">
+        <v>0</v>
+      </c>
+      <c r="G15" s="31">
+        <v>0</v>
+      </c>
+      <c r="H15" s="31">
+        <v>0</v>
+      </c>
+      <c r="I15" s="31">
+        <v>0</v>
+      </c>
+      <c r="J15" s="31">
+        <v>0</v>
+      </c>
+      <c r="K15" s="31">
+        <v>0</v>
+      </c>
+      <c r="L15" s="31">
+        <f>VLOOKUP($B15,$AD$61:$AE$66,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="M15" s="31">
+        <f>VLOOKUP($B15,$AD$67:$AE$73,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="N15" s="31">
+        <f t="shared" si="2"/>
+        <v>70680</v>
+      </c>
+      <c r="O15" s="27">
+        <f t="shared" si="3"/>
+        <v>247.38</v>
+      </c>
+      <c r="P15" s="29">
+        <f t="shared" si="4"/>
+        <v>16.492000000000001</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" s="11">
+        <v>100</v>
+      </c>
+      <c r="T15" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="U15" s="30">
+        <f t="shared" si="5"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE15">
+        <v>20</v>
+      </c>
+      <c r="AF15">
+        <v>0.04</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK15" s="53">
+        <v>112</v>
+      </c>
+      <c r="AL15" s="47">
+        <v>154</v>
+      </c>
+      <c r="AM15" s="47">
+        <v>105</v>
+      </c>
+      <c r="AN15" s="47">
+        <v>91</v>
+      </c>
+      <c r="AO15" s="47">
+        <v>78</v>
+      </c>
+      <c r="AP15" s="54">
+        <v>63</v>
+      </c>
+      <c r="AZ15">
+        <f>SUM(AK15:AY15)</f>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="16" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="31">
+        <v>0</v>
+      </c>
+      <c r="D16" s="31">
+        <v>0</v>
+      </c>
+      <c r="E16" s="31">
+        <f>VLOOKUP($B16,$AD$19:$AE$24,2,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="F16" s="31">
+        <v>0</v>
+      </c>
+      <c r="G16" s="31">
+        <v>0</v>
+      </c>
+      <c r="H16" s="31">
+        <v>0</v>
+      </c>
+      <c r="I16" s="31">
+        <v>0</v>
+      </c>
+      <c r="J16" s="31">
+        <v>0</v>
+      </c>
+      <c r="K16" s="31">
+        <v>0</v>
+      </c>
+      <c r="L16" s="31">
+        <v>0</v>
+      </c>
+      <c r="M16" s="31">
+        <v>0</v>
+      </c>
+      <c r="N16" s="31">
+        <f t="shared" si="2"/>
+        <v>402000</v>
+      </c>
+      <c r="O16" s="27">
+        <f t="shared" si="3"/>
+        <v>2412</v>
+      </c>
+      <c r="P16" s="29">
+        <f t="shared" si="4"/>
+        <v>160.80000000000001</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" s="11">
+        <v>1000</v>
+      </c>
+      <c r="T16" s="15">
+        <v>4</v>
+      </c>
+      <c r="U16" s="30">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE16">
+        <v>30</v>
+      </c>
+      <c r="AF16">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="31">
+        <v>0</v>
+      </c>
+      <c r="D17" s="31">
+        <v>0</v>
+      </c>
+      <c r="E17" s="31">
+        <f>VLOOKUP($B17,$AD$19:$AE$24,2,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="F17" s="31">
+        <v>0</v>
+      </c>
+      <c r="G17" s="31">
+        <v>0</v>
+      </c>
+      <c r="H17" s="31">
+        <v>0</v>
+      </c>
+      <c r="I17" s="31">
+        <v>0</v>
+      </c>
+      <c r="J17" s="31">
+        <f>VLOOKUP($B17,$AD$50:$AE$55,2,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="K17" s="31">
+        <f>VLOOKUP($B17,$AD$56:$AE$60,2,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="L17" s="31">
+        <f>VLOOKUP($B17,$AD$61:$AE$66,2,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="M17" s="31">
+        <f>VLOOKUP($B17,$AD$67:$AE$73,2,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="N17" s="31">
+        <f t="shared" si="2"/>
+        <v>172740</v>
+      </c>
+      <c r="O17" s="27">
+        <f t="shared" si="3"/>
+        <v>414.57599999999996</v>
+      </c>
+      <c r="P17" s="29">
+        <f t="shared" si="4"/>
+        <v>27.638399999999997</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="11">
+        <v>1000</v>
+      </c>
+      <c r="T17" s="15">
+        <v>5</v>
+      </c>
+      <c r="U17" s="30">
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE17">
+        <v>80</v>
+      </c>
+      <c r="AF17">
+        <v>0.32000000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="31">
+        <v>0</v>
+      </c>
+      <c r="D18" s="31">
+        <v>0</v>
+      </c>
+      <c r="E18" s="31">
+        <f>VLOOKUP($B18,$AD$19:$AE$24,2,FALSE)</f>
+        <v>200</v>
+      </c>
+      <c r="F18" s="31">
+        <v>0</v>
+      </c>
+      <c r="G18" s="31">
+        <f>VLOOKUP($B18,$AD$30:$AE$36,2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="H18" s="31">
+        <v>0</v>
+      </c>
+      <c r="I18" s="31">
+        <v>0</v>
+      </c>
+      <c r="J18" s="31">
+        <v>0</v>
+      </c>
+      <c r="K18" s="31">
+        <f>VLOOKUP($B18,$AD$56:$AE$60,2,FALSE)</f>
+        <v>200</v>
+      </c>
+      <c r="L18" s="31">
+        <v>0</v>
+      </c>
+      <c r="M18" s="31">
+        <f>VLOOKUP($B18,$AD$67:$AE$73,2,FALSE)</f>
+        <v>200</v>
+      </c>
+      <c r="N18" s="31">
+        <f t="shared" si="2"/>
+        <v>866450</v>
+      </c>
+      <c r="O18" s="27">
+        <f t="shared" si="3"/>
+        <v>4332.25</v>
+      </c>
+      <c r="P18" s="29">
+        <f t="shared" si="4"/>
+        <v>288.81666666666666</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S18" s="11">
+        <v>1000</v>
+      </c>
+      <c r="T18" s="15">
+        <v>8</v>
+      </c>
+      <c r="U18" s="30">
+        <f t="shared" si="5"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE18">
+        <v>15</v>
+      </c>
+      <c r="AF18">
+        <v>5.2499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="31">
+        <v>0</v>
+      </c>
+      <c r="D19" s="31">
+        <v>0</v>
+      </c>
+      <c r="E19" s="31">
+        <v>0</v>
+      </c>
+      <c r="F19" s="31">
+        <f>VLOOKUP($B19,$AD$25:$AE$29,2,FALSE)</f>
+        <v>200</v>
+      </c>
+      <c r="G19" s="31">
+        <v>0</v>
+      </c>
+      <c r="H19" s="31">
+        <v>0</v>
+      </c>
+      <c r="I19" s="31">
+        <v>0</v>
+      </c>
+      <c r="J19" s="31">
+        <v>0</v>
+      </c>
+      <c r="K19" s="31">
+        <v>0</v>
+      </c>
+      <c r="L19" s="31">
+        <v>0</v>
+      </c>
+      <c r="M19" s="31">
+        <v>0</v>
+      </c>
+      <c r="N19" s="31">
+        <f t="shared" si="2"/>
+        <v>137000</v>
+      </c>
+      <c r="O19" s="27">
+        <f t="shared" si="3"/>
+        <v>2055</v>
+      </c>
+      <c r="P19" s="29">
+        <f t="shared" si="4"/>
+        <v>137</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S19" s="11">
+        <v>1000</v>
+      </c>
+      <c r="T19" s="15">
+        <v>3</v>
+      </c>
+      <c r="U19" s="30">
+        <f t="shared" si="5"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE19">
+        <v>150</v>
+      </c>
+      <c r="AF19">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="AG19">
+        <v>2.7320000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="31">
+        <v>0</v>
+      </c>
+      <c r="D20" s="31">
+        <v>0</v>
+      </c>
+      <c r="E20" s="31">
+        <v>0</v>
+      </c>
+      <c r="F20" s="31">
+        <f>VLOOKUP($B20,$AD$25:$AE$29,2,FALSE)</f>
+        <v>200</v>
+      </c>
+      <c r="G20" s="31">
+        <v>0</v>
+      </c>
+      <c r="H20" s="31">
+        <v>0</v>
+      </c>
+      <c r="I20" s="31">
+        <v>0</v>
+      </c>
+      <c r="J20" s="31">
+        <v>0</v>
+      </c>
+      <c r="K20" s="31">
+        <v>0</v>
+      </c>
+      <c r="L20" s="31">
+        <v>0</v>
+      </c>
+      <c r="M20" s="31">
+        <v>0</v>
+      </c>
+      <c r="N20" s="31">
+        <f t="shared" si="2"/>
+        <v>137000</v>
+      </c>
+      <c r="O20" s="27">
+        <f t="shared" si="3"/>
+        <v>548</v>
+      </c>
+      <c r="P20" s="29">
+        <f t="shared" si="4"/>
+        <v>36.533333333333331</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="S20" s="11">
+        <v>1000</v>
+      </c>
+      <c r="T20" s="15">
+        <v>3</v>
+      </c>
+      <c r="U20" s="30">
+        <f t="shared" si="5"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE20">
+        <v>40</v>
+      </c>
+      <c r="AF20">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="31">
+        <v>0</v>
+      </c>
+      <c r="D21" s="31">
+        <v>0</v>
+      </c>
+      <c r="E21" s="31">
+        <v>0</v>
+      </c>
+      <c r="F21" s="31">
+        <f>VLOOKUP($B21,$AD$25:$AE$29,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="G21" s="31">
+        <v>0</v>
+      </c>
+      <c r="H21" s="31">
+        <v>0</v>
+      </c>
+      <c r="I21" s="31">
+        <v>0</v>
+      </c>
+      <c r="J21" s="31">
+        <v>0</v>
+      </c>
+      <c r="K21" s="31">
+        <v>0</v>
+      </c>
+      <c r="L21" s="31">
+        <v>0</v>
+      </c>
+      <c r="M21" s="31">
+        <v>0</v>
+      </c>
+      <c r="N21" s="31">
+        <f t="shared" si="2"/>
+        <v>13700</v>
+      </c>
+      <c r="O21" s="27">
+        <f t="shared" si="3"/>
+        <v>246.60000000000002</v>
+      </c>
+      <c r="P21" s="29">
+        <f t="shared" si="4"/>
+        <v>16.440000000000001</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="S21" s="11">
+        <v>1000</v>
+      </c>
+      <c r="T21" s="15">
+        <v>10</v>
+      </c>
+      <c r="U21" s="30">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE21">
+        <v>20</v>
+      </c>
+      <c r="AF21">
+        <v>0.04</v>
+      </c>
+      <c r="AJ21">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="31">
+        <v>0</v>
+      </c>
+      <c r="D22" s="31">
+        <v>0</v>
+      </c>
+      <c r="E22" s="31">
+        <v>0</v>
+      </c>
+      <c r="F22" s="31">
+        <v>0</v>
+      </c>
+      <c r="G22" s="31">
+        <f>VLOOKUP($B22,$AD$30:$AE$36,2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="H22" s="31">
+        <v>0</v>
+      </c>
+      <c r="I22" s="31">
+        <f>VLOOKUP($B22,$AD$43:$AE$49,2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="J22" s="31">
+        <v>0</v>
+      </c>
+      <c r="K22" s="31">
+        <v>0</v>
+      </c>
+      <c r="L22" s="31">
+        <v>0</v>
+      </c>
+      <c r="M22" s="31">
+        <v>0</v>
+      </c>
+      <c r="N22" s="31">
+        <f t="shared" si="2"/>
+        <v>140100</v>
+      </c>
+      <c r="O22" s="27">
+        <f t="shared" si="3"/>
+        <v>910.65</v>
+      </c>
+      <c r="P22" s="29">
+        <f t="shared" si="4"/>
+        <v>60.71</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="S22" s="11">
+        <v>1000</v>
+      </c>
+      <c r="T22" s="15">
+        <v>7</v>
+      </c>
+      <c r="U22" s="30">
+        <f t="shared" si="5"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE22">
+        <v>30</v>
+      </c>
+      <c r="AF22">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AJ22">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="23" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="31">
+        <v>0</v>
+      </c>
+      <c r="D23" s="31">
+        <v>0</v>
+      </c>
+      <c r="E23" s="31">
+        <v>0</v>
+      </c>
+      <c r="F23" s="31">
+        <v>0</v>
+      </c>
+      <c r="G23" s="31">
+        <f>VLOOKUP($B23,$AD$30:$AE$36,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="H23" s="31">
+        <v>0</v>
+      </c>
+      <c r="I23" s="31">
+        <v>0</v>
+      </c>
+      <c r="J23" s="31">
+        <f>VLOOKUP($B23,$AD$50:$AE$55,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="K23" s="31">
+        <v>0</v>
+      </c>
+      <c r="L23" s="31">
+        <v>0</v>
+      </c>
+      <c r="M23" s="31">
+        <v>0</v>
+      </c>
+      <c r="N23" s="31">
+        <f t="shared" si="2"/>
+        <v>41275</v>
+      </c>
+      <c r="O23" s="27">
+        <f t="shared" si="3"/>
+        <v>206.375</v>
+      </c>
+      <c r="P23" s="29">
+        <f t="shared" si="4"/>
+        <v>13.758333333333333</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" s="17">
+        <v>1000</v>
+      </c>
+      <c r="T23" s="18">
+        <v>2.4</v>
+      </c>
+      <c r="U23" s="30">
+        <f t="shared" si="5"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE23">
+        <v>200</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AJ23">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="31">
+        <v>0</v>
+      </c>
+      <c r="D24" s="31">
+        <v>0</v>
+      </c>
+      <c r="E24" s="31">
+        <v>0</v>
+      </c>
+      <c r="F24" s="31">
+        <v>0</v>
+      </c>
+      <c r="G24" s="31">
+        <v>0</v>
+      </c>
+      <c r="H24" s="31">
+        <v>0</v>
+      </c>
+      <c r="I24" s="31">
+        <v>0</v>
+      </c>
+      <c r="J24" s="31">
+        <f>VLOOKUP($B24,$AD$50:$AE$55,2,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="K24" s="31">
+        <v>0</v>
+      </c>
+      <c r="L24" s="31">
+        <v>0</v>
+      </c>
+      <c r="M24" s="31">
+        <v>0</v>
+      </c>
+      <c r="N24" s="31">
+        <f t="shared" si="2"/>
+        <v>58240</v>
+      </c>
+      <c r="O24" s="27">
+        <f t="shared" si="3"/>
+        <v>465.92</v>
+      </c>
+      <c r="P24" s="29">
+        <f t="shared" si="4"/>
+        <v>31.061333333333334</v>
+      </c>
+      <c r="R24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="17">
+        <v>1000</v>
+      </c>
+      <c r="T24" s="18">
+        <v>3.2</v>
+      </c>
+      <c r="U24" s="30">
+        <f t="shared" si="5"/>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE24">
+        <v>80</v>
+      </c>
+      <c r="AF24">
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="AJ24">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="31">
+        <v>0</v>
+      </c>
+      <c r="D25" s="31">
+        <v>0</v>
+      </c>
+      <c r="E25" s="31">
+        <v>0</v>
+      </c>
+      <c r="F25" s="31">
+        <v>0</v>
+      </c>
+      <c r="G25" s="31">
+        <v>0</v>
+      </c>
+      <c r="H25" s="31">
+        <v>0</v>
+      </c>
+      <c r="I25" s="31">
+        <v>0</v>
+      </c>
+      <c r="J25" s="31">
+        <f>VLOOKUP($B25,$AD$50:$AE$55,2,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="K25" s="31">
+        <v>0</v>
+      </c>
+      <c r="L25" s="31">
+        <v>0</v>
+      </c>
+      <c r="M25" s="31">
+        <v>0</v>
+      </c>
+      <c r="N25" s="31">
+        <f t="shared" si="2"/>
+        <v>58240</v>
+      </c>
+      <c r="O25" s="27">
+        <f t="shared" si="3"/>
+        <v>174.72</v>
+      </c>
+      <c r="P25" s="29">
+        <f t="shared" si="4"/>
+        <v>11.648</v>
+      </c>
+      <c r="R25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S25" s="17">
+        <v>1000</v>
+      </c>
+      <c r="T25" s="18">
+        <v>4</v>
+      </c>
+      <c r="U25" s="30">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE25">
+        <v>200</v>
+      </c>
+      <c r="AF25">
+        <v>3</v>
+      </c>
+      <c r="AG25">
+        <v>4.8800000000000008</v>
+      </c>
+      <c r="AJ25">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="26" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="31">
+        <v>0</v>
+      </c>
+      <c r="D26" s="31">
+        <v>0</v>
+      </c>
+      <c r="E26" s="31">
+        <v>0</v>
+      </c>
+      <c r="F26" s="31">
+        <v>0</v>
+      </c>
+      <c r="G26" s="31">
+        <v>0</v>
+      </c>
+      <c r="H26" s="31">
+        <v>0</v>
+      </c>
+      <c r="I26" s="31">
+        <v>0</v>
+      </c>
+      <c r="J26" s="31">
+        <f>VLOOKUP($B26,$AD$50:$AE$55,2,FALSE)</f>
+        <v>200</v>
+      </c>
+      <c r="K26" s="31">
+        <v>0</v>
+      </c>
+      <c r="L26" s="31">
+        <v>0</v>
+      </c>
+      <c r="M26" s="31">
+        <v>0</v>
+      </c>
+      <c r="N26" s="31">
+        <f t="shared" si="2"/>
+        <v>145600</v>
+      </c>
+      <c r="O26" s="27">
+        <f t="shared" si="3"/>
+        <v>436.8</v>
+      </c>
+      <c r="P26" s="29">
+        <f t="shared" si="4"/>
+        <v>29.12</v>
+      </c>
+      <c r="R26" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="S26" s="17">
+        <v>100</v>
+      </c>
+      <c r="T26" s="18">
+        <v>1.8</v>
+      </c>
+      <c r="U26" s="30">
+        <f t="shared" si="5"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE26">
+        <v>40</v>
+      </c>
+      <c r="AF26">
+        <v>0.4</v>
+      </c>
+      <c r="AJ26">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="27" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="31">
+        <v>0</v>
+      </c>
+      <c r="D27" s="31">
+        <v>0</v>
+      </c>
+      <c r="E27" s="31">
+        <v>0</v>
+      </c>
+      <c r="F27" s="31">
+        <v>0</v>
+      </c>
+      <c r="G27" s="31">
+        <v>0</v>
+      </c>
+      <c r="H27" s="31">
+        <v>0</v>
+      </c>
+      <c r="I27" s="31">
+        <v>0</v>
+      </c>
+      <c r="J27" s="31">
+        <v>0</v>
+      </c>
+      <c r="K27" s="31">
+        <f>VLOOKUP($B27,$AD$56:$AE$60,2,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="L27" s="31">
+        <v>0</v>
+      </c>
+      <c r="M27" s="31">
+        <v>0</v>
+      </c>
+      <c r="N27" s="31">
+        <f t="shared" si="2"/>
+        <v>48320</v>
+      </c>
+      <c r="O27" s="27">
+        <f t="shared" si="3"/>
+        <v>48.32</v>
+      </c>
+      <c r="P27" s="29">
+        <f t="shared" si="4"/>
+        <v>3.2213333333333334</v>
+      </c>
+      <c r="R27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="S27" s="17">
+        <v>1000</v>
+      </c>
+      <c r="T27" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="U27" s="30">
+        <f t="shared" si="5"/>
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE27">
+        <v>200</v>
+      </c>
+      <c r="AF27">
+        <v>0.8</v>
+      </c>
+      <c r="AJ27">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="31">
+        <v>0</v>
+      </c>
+      <c r="D28" s="31">
+        <v>0</v>
+      </c>
+      <c r="E28" s="31">
+        <v>0</v>
+      </c>
+      <c r="F28" s="31">
+        <v>0</v>
+      </c>
+      <c r="G28" s="31">
+        <v>0</v>
+      </c>
+      <c r="H28" s="31">
+        <v>0</v>
+      </c>
+      <c r="I28" s="31">
+        <v>0</v>
+      </c>
+      <c r="J28" s="31">
+        <v>0</v>
+      </c>
+      <c r="K28" s="31">
+        <v>0</v>
+      </c>
+      <c r="L28" s="31">
+        <f>VLOOKUP($B28,$AD$61:$AE$66,2,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="M28" s="31">
+        <v>0</v>
+      </c>
+      <c r="N28" s="31">
+        <f t="shared" si="2"/>
+        <v>171450</v>
+      </c>
+      <c r="O28" s="27">
+        <f t="shared" si="3"/>
+        <v>1200.1500000000001</v>
+      </c>
+      <c r="P28" s="29">
+        <f t="shared" si="4"/>
+        <v>80.010000000000005</v>
+      </c>
+      <c r="R28" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S28" s="17">
+        <v>100</v>
+      </c>
+      <c r="T28" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="U28" s="30">
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE28">
+        <v>20</v>
+      </c>
+      <c r="AF28">
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="AJ28">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="31">
+        <v>0</v>
+      </c>
+      <c r="D29" s="31">
+        <v>0</v>
+      </c>
+      <c r="E29" s="31">
+        <v>0</v>
+      </c>
+      <c r="F29" s="31">
+        <v>0</v>
+      </c>
+      <c r="G29" s="31">
+        <v>0</v>
+      </c>
+      <c r="H29" s="31">
+        <v>0</v>
+      </c>
+      <c r="I29" s="31">
+        <v>0</v>
+      </c>
+      <c r="J29" s="31">
+        <v>0</v>
+      </c>
+      <c r="K29" s="31">
+        <v>0</v>
+      </c>
+      <c r="L29" s="31">
+        <v>0</v>
+      </c>
+      <c r="M29" s="31">
+        <f>VLOOKUP($B29,$AD$67:$AE$73,2,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="N29" s="31">
+        <f t="shared" si="2"/>
+        <v>48240</v>
+      </c>
+      <c r="O29" s="27">
+        <f t="shared" si="3"/>
+        <v>482.40000000000003</v>
+      </c>
+      <c r="P29" s="29">
+        <f t="shared" si="4"/>
+        <v>32.160000000000004</v>
+      </c>
+      <c r="R29" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="S29" s="17">
+        <v>1000</v>
+      </c>
+      <c r="T29" s="18">
+        <v>1</v>
+      </c>
+      <c r="U29" s="30">
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE29">
+        <v>80</v>
+      </c>
+      <c r="AF29">
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="AJ29">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="30" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="AB30" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE30">
+        <v>50</v>
+      </c>
+      <c r="AF30">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AG30">
+        <v>1.51</v>
+      </c>
+      <c r="AJ30">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="31">
+        <v>644</v>
+      </c>
+      <c r="D31" s="31">
+        <v>2966</v>
+      </c>
+      <c r="E31" s="31">
+        <v>2680</v>
+      </c>
+      <c r="F31" s="31">
+        <v>685</v>
+      </c>
+      <c r="G31" s="31">
+        <v>1781</v>
+      </c>
+      <c r="H31" s="31">
+        <v>898</v>
+      </c>
+      <c r="I31" s="31">
+        <v>1021</v>
+      </c>
+      <c r="J31" s="31">
+        <v>728</v>
+      </c>
+      <c r="K31" s="31">
+        <v>604</v>
+      </c>
+      <c r="L31" s="31">
+        <v>1143</v>
+      </c>
+      <c r="M31" s="31">
+        <v>603</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE31">
+        <v>0.5</v>
+      </c>
+      <c r="AF31">
+        <v>0.1</v>
+      </c>
+      <c r="AJ31">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="32" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="N32" t="s">
+        <v>117</v>
+      </c>
+      <c r="O32" s="28">
+        <f>SUM(O4:O29)</f>
+        <v>30466.232000000004</v>
+      </c>
+      <c r="P32" s="28">
+        <f>SUM(P4:P29)</f>
+        <v>2031.0821333333336</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE32">
+        <v>15</v>
+      </c>
+      <c r="AF32">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="14:41" x14ac:dyDescent="0.35">
+      <c r="N33" t="s">
+        <v>118</v>
+      </c>
+      <c r="P33" s="48">
+        <f>P32*1.2</f>
+        <v>2437.2985600000002</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE33">
+        <v>10</v>
+      </c>
+      <c r="AF33">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="34" spans="14:41" x14ac:dyDescent="0.35">
+      <c r="AD34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE34">
+        <v>50</v>
+      </c>
+      <c r="AF34">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="14:41" x14ac:dyDescent="0.35">
+      <c r="AD35" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE35">
+        <v>40</v>
+      </c>
+      <c r="AF35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="36" spans="14:41" x14ac:dyDescent="0.35">
+      <c r="AD36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE36">
+        <v>80</v>
+      </c>
+      <c r="AF36">
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK36" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL36" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM36" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="AN36" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="AO36" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="11" t="s">
+    </row>
+    <row r="37" spans="14:41" x14ac:dyDescent="0.35">
+      <c r="AB37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE37">
+        <v>80</v>
+      </c>
+      <c r="AF37">
+        <v>1.4400000000000002</v>
+      </c>
+      <c r="AG37">
+        <v>2.7500000000000009</v>
+      </c>
+      <c r="AI37" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+      <c r="AJ37" s="11">
+        <v>1761</v>
+      </c>
+      <c r="AK37" s="11">
+        <v>2134</v>
+      </c>
+      <c r="AL37" s="11">
+        <v>2446</v>
+      </c>
+      <c r="AM37" s="11">
+        <v>1883</v>
+      </c>
+      <c r="AN37" s="11">
+        <v>1652</v>
+      </c>
+      <c r="AO37" s="11">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="38" spans="14:41" x14ac:dyDescent="0.35">
+      <c r="AD38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE38">
+        <v>0.5</v>
+      </c>
+      <c r="AF38">
+        <v>0.1</v>
+      </c>
+      <c r="AI38" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="11">
-        <v>1761</v>
-      </c>
-      <c r="D3" s="11">
-        <v>2134</v>
-      </c>
-      <c r="E3" s="11">
-        <v>2446</v>
-      </c>
-      <c r="F3" s="11">
-        <v>1883</v>
-      </c>
-      <c r="G3" s="11">
-        <v>1652</v>
-      </c>
-      <c r="H3" s="11">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
+      <c r="AJ38" s="11">
+        <v>516</v>
+      </c>
+      <c r="AK38" s="11">
+        <v>611</v>
+      </c>
+      <c r="AL38" s="11">
+        <v>656</v>
+      </c>
+      <c r="AM38" s="11">
+        <v>500</v>
+      </c>
+      <c r="AN38" s="11">
+        <v>493</v>
+      </c>
+      <c r="AO38" s="11">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39" spans="14:41" x14ac:dyDescent="0.35">
+      <c r="AD39" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE39">
+        <v>10</v>
+      </c>
+      <c r="AF39">
+        <v>0.05</v>
+      </c>
+      <c r="AI39" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="11">
-        <v>516</v>
-      </c>
-      <c r="D4" s="11">
-        <v>611</v>
-      </c>
-      <c r="E4" s="11">
-        <v>656</v>
-      </c>
-      <c r="F4" s="11">
-        <v>500</v>
-      </c>
-      <c r="G4" s="11">
-        <v>493</v>
-      </c>
-      <c r="H4" s="11">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
+      <c r="AJ39" s="11">
+        <v>379</v>
+      </c>
+      <c r="AK39" s="11">
+        <v>476</v>
+      </c>
+      <c r="AL39" s="11">
+        <v>541</v>
+      </c>
+      <c r="AM39" s="11">
+        <v>460</v>
+      </c>
+      <c r="AN39" s="11">
+        <v>370</v>
+      </c>
+      <c r="AO39" s="11">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="14:41" x14ac:dyDescent="0.35">
+      <c r="AD40" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE40">
+        <v>10</v>
+      </c>
+      <c r="AF40">
+        <v>0.04</v>
+      </c>
+      <c r="AI40" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="11">
-        <v>379</v>
-      </c>
-      <c r="D5" s="11">
-        <v>476</v>
-      </c>
-      <c r="E5" s="11">
-        <v>541</v>
-      </c>
-      <c r="F5" s="11">
-        <v>460</v>
-      </c>
-      <c r="G5" s="11">
-        <v>370</v>
-      </c>
-      <c r="H5" s="11">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
+      <c r="AJ40" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="AK40" s="11">
+        <v>13</v>
+      </c>
+      <c r="AL40" s="11">
+        <v>88</v>
+      </c>
+      <c r="AM40" s="11">
+        <v>306</v>
+      </c>
+      <c r="AN40" s="11">
+        <v>294</v>
+      </c>
+      <c r="AO40" s="11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="14:41" x14ac:dyDescent="0.35">
+      <c r="AD41" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE41">
+        <v>200</v>
+      </c>
+      <c r="AF41">
+        <v>0.8</v>
+      </c>
+      <c r="AI41" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="11">
+      <c r="AJ41" s="11">
+        <v>994</v>
+      </c>
+      <c r="AK41" s="11">
+        <v>1311</v>
+      </c>
+      <c r="AL41" s="11">
+        <v>1608</v>
+      </c>
+      <c r="AM41" s="11">
+        <v>1064</v>
+      </c>
+      <c r="AN41" s="11">
+        <v>1042</v>
+      </c>
+      <c r="AO41" s="11">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="42" spans="14:41" x14ac:dyDescent="0.35">
+      <c r="AD42" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE42">
+        <v>80</v>
+      </c>
+      <c r="AF42">
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="AI42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ42" s="11">
+        <v>52</v>
+      </c>
+      <c r="AK42" s="11">
+        <v>45</v>
+      </c>
+      <c r="AL42" s="11">
+        <v>70</v>
+      </c>
+      <c r="AM42" s="11">
+        <v>67</v>
+      </c>
+      <c r="AN42" s="11">
+        <v>67</v>
+      </c>
+      <c r="AO42" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="14:41" x14ac:dyDescent="0.35">
+      <c r="AB43" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE43">
+        <v>50</v>
+      </c>
+      <c r="AF43">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AG43">
+        <v>2.0600000000000005</v>
+      </c>
+      <c r="AI43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ43" s="11">
+        <v>185</v>
+      </c>
+      <c r="AK43" s="11">
+        <v>182</v>
+      </c>
+      <c r="AL43" s="11">
+        <v>153</v>
+      </c>
+      <c r="AM43" s="11">
+        <v>253</v>
+      </c>
+      <c r="AN43" s="11">
+        <v>196</v>
+      </c>
+      <c r="AO43" s="11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="14:41" x14ac:dyDescent="0.35">
+      <c r="AD44" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE44">
+        <v>0.5</v>
+      </c>
+      <c r="AF44">
+        <v>0.1</v>
+      </c>
+      <c r="AI44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ44" s="11">
+        <v>64</v>
+      </c>
+      <c r="AK44" s="11">
+        <v>35</v>
+      </c>
+      <c r="AL44" s="11">
+        <v>20</v>
+      </c>
+      <c r="AM44" s="11">
+        <v>17</v>
+      </c>
+      <c r="AN44" s="11">
+        <v>38</v>
+      </c>
+      <c r="AO44" s="11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="14:41" x14ac:dyDescent="0.35">
+      <c r="AD45" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE45">
+        <v>15</v>
+      </c>
+      <c r="AF45">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AI45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ45" s="11">
+        <v>7</v>
+      </c>
+      <c r="AK45" s="11">
+        <v>4</v>
+      </c>
+      <c r="AL45" s="11">
+        <v>16</v>
+      </c>
+      <c r="AM45" s="11">
+        <v>44</v>
+      </c>
+      <c r="AN45" s="11">
+        <v>34</v>
+      </c>
+      <c r="AO45" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="14:41" x14ac:dyDescent="0.35">
+      <c r="AD46" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE46">
+        <v>10</v>
+      </c>
+      <c r="AF46">
+        <v>0.04</v>
+      </c>
+      <c r="AI46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ46" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK46" s="11">
+        <v>5</v>
+      </c>
+      <c r="AL46" s="11">
+        <v>1</v>
+      </c>
+      <c r="AM46" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN46" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO46" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="14:41" x14ac:dyDescent="0.35">
+      <c r="AD47" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="11">
-        <v>88</v>
-      </c>
-      <c r="F6" s="11">
-        <v>306</v>
-      </c>
-      <c r="G6" s="11">
-        <v>294</v>
-      </c>
-      <c r="H6" s="11">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="11">
-        <v>994</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1311</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1608</v>
-      </c>
-      <c r="F7" s="11">
-        <v>1064</v>
-      </c>
-      <c r="G7" s="11">
-        <v>1042</v>
-      </c>
-      <c r="H7" s="11">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="11">
-        <v>52</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="AE47">
+        <v>200</v>
+      </c>
+      <c r="AF47">
+        <v>0.8</v>
+      </c>
+      <c r="AI47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ47" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK47" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL47" s="11">
+        <v>2</v>
+      </c>
+      <c r="AM47" s="11">
+        <v>6</v>
+      </c>
+      <c r="AN47" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO47" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="14:41" x14ac:dyDescent="0.35">
+      <c r="AD48" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE48">
+        <v>40</v>
+      </c>
+      <c r="AF48">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="49" spans="28:33" x14ac:dyDescent="0.35">
+      <c r="AD49" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE49">
+        <v>80</v>
+      </c>
+      <c r="AF49">
+        <v>0.32000000000000006</v>
+      </c>
+    </row>
+    <row r="50" spans="28:33" x14ac:dyDescent="0.35">
+      <c r="AB50" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE50">
+        <v>80</v>
+      </c>
+      <c r="AF50">
+        <v>0.64</v>
+      </c>
+      <c r="AG50">
+        <v>1.9720000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="28:33" x14ac:dyDescent="0.35">
+      <c r="AD51" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE51">
+        <v>80</v>
+      </c>
+      <c r="AF51">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="52" spans="28:33" x14ac:dyDescent="0.35">
+      <c r="AD52" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE52">
+        <v>20</v>
+      </c>
+      <c r="AF52">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="53" spans="28:33" x14ac:dyDescent="0.35">
+      <c r="AD53" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE53">
+        <v>30</v>
+      </c>
+      <c r="AF53">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="28:33" x14ac:dyDescent="0.35">
+      <c r="AD54" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE54">
+        <v>200</v>
+      </c>
+      <c r="AF54">
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="55" spans="28:33" x14ac:dyDescent="0.35">
+      <c r="AD55" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE55">
+        <v>80</v>
+      </c>
+      <c r="AF55">
+        <v>0.32000000000000006</v>
+      </c>
+    </row>
+    <row r="56" spans="28:33" x14ac:dyDescent="0.35">
+      <c r="AB56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE56">
+        <v>80</v>
+      </c>
+      <c r="AF56">
+        <v>0.8</v>
+      </c>
+      <c r="AG56">
+        <v>2.052</v>
+      </c>
+    </row>
+    <row r="57" spans="28:33" x14ac:dyDescent="0.35">
+      <c r="AD57" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE57">
+        <v>0.5</v>
+      </c>
+      <c r="AF57">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58" spans="28:33" x14ac:dyDescent="0.35">
+      <c r="AD58" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE58">
+        <v>30</v>
+      </c>
+      <c r="AF58">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="28:33" x14ac:dyDescent="0.35">
+      <c r="AD59" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE59">
+        <v>200</v>
+      </c>
+      <c r="AF59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="28:33" x14ac:dyDescent="0.35">
+      <c r="AD60" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="11">
-        <v>70</v>
-      </c>
-      <c r="F8" s="11">
-        <v>67</v>
-      </c>
-      <c r="G8" s="11">
-        <v>67</v>
-      </c>
-      <c r="H8" s="11">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="11">
-        <v>185</v>
-      </c>
-      <c r="D9" s="11">
-        <v>182</v>
-      </c>
-      <c r="E9" s="11">
-        <v>153</v>
-      </c>
-      <c r="F9" s="11">
-        <v>253</v>
-      </c>
-      <c r="G9" s="11">
-        <v>196</v>
-      </c>
-      <c r="H9" s="11">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="11">
-        <v>64</v>
-      </c>
-      <c r="D10" s="11">
-        <v>35</v>
-      </c>
-      <c r="E10" s="11">
-        <v>20</v>
-      </c>
-      <c r="F10" s="11">
-        <v>17</v>
-      </c>
-      <c r="G10" s="11">
-        <v>38</v>
-      </c>
-      <c r="H10" s="11">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="11">
-        <v>7</v>
-      </c>
-      <c r="D11" s="11">
-        <v>4</v>
-      </c>
-      <c r="E11" s="11">
-        <v>16</v>
-      </c>
-      <c r="F11" s="11">
-        <v>44</v>
-      </c>
-      <c r="G11" s="11">
-        <v>34</v>
-      </c>
-      <c r="H11" s="11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="11">
-        <v>5</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="AE60">
+        <v>80</v>
+      </c>
+      <c r="AF60">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="61" spans="28:33" x14ac:dyDescent="0.35">
+      <c r="AB61" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE61">
+        <v>150</v>
+      </c>
+      <c r="AF61">
+        <v>1.05</v>
+      </c>
+      <c r="AG61">
+        <v>2.3945000000000007</v>
+      </c>
+    </row>
+    <row r="62" spans="28:33" x14ac:dyDescent="0.35">
+      <c r="AD62" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE62">
+        <v>0.5</v>
+      </c>
+      <c r="AF62">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="63" spans="28:33" x14ac:dyDescent="0.35">
+      <c r="AD63" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE63">
+        <v>30</v>
+      </c>
+      <c r="AF63">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="28:33" x14ac:dyDescent="0.35">
+      <c r="AD64" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE64">
+        <v>15</v>
+      </c>
+      <c r="AF64">
+        <v>5.2499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="28:33" x14ac:dyDescent="0.35">
+      <c r="AD65" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE65">
+        <v>200</v>
+      </c>
+      <c r="AF65">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="66" spans="28:33" x14ac:dyDescent="0.35">
+      <c r="AD66" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE66">
+        <v>80</v>
+      </c>
+      <c r="AF66">
+        <v>0.32000000000000006</v>
+      </c>
+    </row>
+    <row r="67" spans="28:33" x14ac:dyDescent="0.35">
+      <c r="AB67" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE67">
+        <v>80</v>
+      </c>
+      <c r="AF67">
+        <v>0.8</v>
+      </c>
+      <c r="AG67">
+        <v>2.7444999999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="28:33" x14ac:dyDescent="0.35">
+      <c r="AD68" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE68">
+        <v>0.5</v>
+      </c>
+      <c r="AF68">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69" spans="28:33" x14ac:dyDescent="0.35">
+      <c r="AD69" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE69">
+        <v>30</v>
+      </c>
+      <c r="AF69">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="28:33" x14ac:dyDescent="0.35">
+      <c r="AD70" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE70">
+        <v>15</v>
+      </c>
+      <c r="AF70">
+        <v>5.2499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="28:33" x14ac:dyDescent="0.35">
+      <c r="AD71" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE71">
+        <v>200</v>
+      </c>
+      <c r="AF71">
         <v>1</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="11">
-        <v>2</v>
-      </c>
-      <c r="F13" s="11">
-        <v>6</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>110</v>
+    </row>
+    <row r="72" spans="28:33" x14ac:dyDescent="0.35">
+      <c r="AD72" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE72">
+        <v>40</v>
+      </c>
+      <c r="AF72">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="73" spans="28:33" x14ac:dyDescent="0.35">
+      <c r="AD73" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE73">
+        <v>80</v>
+      </c>
+      <c r="AF73">
+        <v>0.32000000000000006</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AI3:AJ4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>